--- a/data/trans_orig/CONS_ANT-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CONS_ANT-Estudios-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos antibióticos en País Vasco</t>
+          <t>Consumo de medicamentos antibióticos en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2156,7 +2156,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos antibióticos en Andalucia</t>
+          <t>Consumo de medicamentos antibióticos en Andalucia (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3767,7 +3767,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos antibióticos en C.Valenciana</t>
+          <t>Consumo de medicamentos antibióticos en C.Valenciana (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CONS_ANT-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CONS_ANT-Estudios-trans_orig.xlsx
@@ -735,32 +735,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1786</t>
+          <t>1556</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>870</t>
+          <t>746</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3559</t>
+          <t>2837</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -770,32 +770,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2450</t>
+          <t>2655</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>1392</t>
+          <t>1597</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>4121</t>
+          <t>4528</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -805,32 +805,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>4236</t>
+          <t>4211</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>2761</t>
+          <t>2851</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>6290</t>
+          <t>6202</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>3,04%</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>86278</t>
+          <t>80986</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>84505</t>
+          <t>79705</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>87194</t>
+          <t>81796</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>97,97%</t>
+          <t>98,11%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>95,96%</t>
+          <t>96,56%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>99,01%</t>
+          <t>99,1%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -883,32 +883,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>125294</t>
+          <t>118797</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>123623</t>
+          <t>116924</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>126352</t>
+          <t>119855</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>98,08%</t>
+          <t>97,81%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>96,77%</t>
+          <t>96,27%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>98,91%</t>
+          <t>98,69%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -918,32 +918,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>211573</t>
+          <t>199783</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>209519</t>
+          <t>197792</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>213048</t>
+          <t>201143</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>98,04%</t>
+          <t>97,94%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>97,09%</t>
+          <t>96,96%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>98,72%</t>
+          <t>98,6%</t>
         </is>
       </c>
     </row>
@@ -961,17 +961,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>88064</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>88064</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>88064</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -996,17 +996,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>127744</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>127744</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>127744</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1031,17 +1031,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>215809</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>215809</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>215809</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1078,32 +1078,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3271</t>
+          <t>2910</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1924</t>
+          <t>1692</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5577</t>
+          <t>4947</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1113,32 +1113,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3637</t>
+          <t>4185</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2097</t>
+          <t>2429</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5788</t>
+          <t>6306</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1148,17 +1148,17 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>6909</t>
+          <t>7096</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>4793</t>
+          <t>4973</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>10181</t>
+          <t>10620</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1168,12 +1168,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>1,17%</t>
         </is>
       </c>
     </row>
@@ -1191,32 +1191,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>450220</t>
+          <t>458769</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>447914</t>
+          <t>456732</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>451567</t>
+          <t>459987</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>99,28%</t>
+          <t>99,37%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>98,77%</t>
+          <t>98,93%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>99,58%</t>
+          <t>99,63%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1226,32 +1226,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>428165</t>
+          <t>440172</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>426014</t>
+          <t>438051</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>429705</t>
+          <t>441928</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>99,16%</t>
+          <t>99,06%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>98,66%</t>
+          <t>98,58%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>99,51%</t>
+          <t>99,45%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1261,17 +1261,17 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>878384</t>
+          <t>898939</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>875112</t>
+          <t>895415</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>880500</t>
+          <t>901062</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1281,12 +1281,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>98,85%</t>
+          <t>98,83%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>99,46%</t>
+          <t>99,45%</t>
         </is>
       </c>
     </row>
@@ -1304,17 +1304,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>453491</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>453491</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>453491</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1339,17 +1339,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>431802</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>431802</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>431802</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1374,17 +1374,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>885293</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>885293</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>885293</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1421,32 +1421,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>953</t>
+          <t>1041</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>333</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2313</t>
+          <t>2437</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1456,32 +1456,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1490</t>
+          <t>1613</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>792</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>2627</t>
+          <t>2736</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1491,32 +1491,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>2443</t>
+          <t>2654</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>1386</t>
+          <t>1465</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>4200</t>
+          <t>4371</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>1,08%</t>
         </is>
       </c>
     </row>
@@ -1534,32 +1534,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>150672</t>
+          <t>174520</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>149312</t>
+          <t>173124</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>151250</t>
+          <t>175228</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>99,37%</t>
+          <t>99,41%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>98,47%</t>
+          <t>98,61%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,75%</t>
+          <t>99,81%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1569,32 +1569,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>192747</t>
+          <t>226381</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>191610</t>
+          <t>225258</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>193513</t>
+          <t>227202</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>99,23%</t>
+          <t>99,29%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>98,65%</t>
+          <t>98,8%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>99,63%</t>
+          <t>99,65%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1604,32 +1604,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>343420</t>
+          <t>400901</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>341663</t>
+          <t>399184</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>344477</t>
+          <t>402090</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>99,29%</t>
+          <t>99,34%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>98,79%</t>
+          <t>98,92%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>99,6%</t>
+          <t>99,64%</t>
         </is>
       </c>
     </row>
@@ -1647,17 +1647,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>151625</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>151625</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>151625</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1682,17 +1682,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>194237</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>194237</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>194237</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1717,17 +1717,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>345863</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>345863</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>345863</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1764,32 +1764,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6010</t>
+          <t>5507</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4087</t>
+          <t>3713</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8721</t>
+          <t>7932</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1799,32 +1799,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7578</t>
+          <t>8453</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5588</t>
+          <t>6077</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>10483</t>
+          <t>11450</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1834,22 +1834,22 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>13588</t>
+          <t>13960</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>10464</t>
+          <t>10961</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>17105</t>
+          <t>17406</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
@@ -1859,7 +1859,7 @@
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>1,15%</t>
         </is>
       </c>
     </row>
@@ -1877,32 +1877,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>687171</t>
+          <t>714274</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>684460</t>
+          <t>711849</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>689094</t>
+          <t>716068</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>99,13%</t>
+          <t>99,23%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>98,74%</t>
+          <t>98,9%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>99,41%</t>
+          <t>99,48%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1912,32 +1912,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>746206</t>
+          <t>785350</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>743301</t>
+          <t>782353</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>748196</t>
+          <t>787726</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>98,99%</t>
+          <t>98,94%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>98,61%</t>
+          <t>98,56%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>99,26%</t>
+          <t>99,23%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1947,27 +1947,27 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1433377</t>
+          <t>1499624</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1429860</t>
+          <t>1496178</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1436501</t>
+          <t>1502623</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>99,06%</t>
+          <t>99,08%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>98,82%</t>
+          <t>98,85%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
@@ -1990,17 +1990,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>693181</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>693181</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>693181</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2025,17 +2025,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>753784</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>753784</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>753784</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2060,17 +2060,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1446965</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1446965</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1446965</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2351,12 +2351,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4288</t>
+          <t>4941</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>15524</t>
+          <t>16938</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -2366,12 +2366,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,81%</t>
+          <t>7,44%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -2386,12 +2386,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>19050</t>
+          <t>20243</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>47340</t>
+          <t>50426</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -2401,12 +2401,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>11,99%</t>
+          <t>12,77%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -2421,12 +2421,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>27095</t>
+          <t>27552</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>57108</t>
+          <t>59288</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -2436,12 +2436,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>9,17%</t>
+          <t>9,52%</t>
         </is>
       </c>
     </row>
@@ -2464,12 +2464,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>212283</t>
+          <t>210869</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>223519</t>
+          <t>222866</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>93,19%</t>
+          <t>92,56%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>98,12%</t>
+          <t>97,83%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -2499,12 +2499,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>347420</t>
+          <t>344334</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>375710</t>
+          <t>374517</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -2514,12 +2514,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>88,01%</t>
+          <t>87,23%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>95,17%</t>
+          <t>94,87%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -2534,12 +2534,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>565459</t>
+          <t>563279</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>595472</t>
+          <t>595015</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -2549,12 +2549,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>90,83%</t>
+          <t>90,48%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>95,65%</t>
+          <t>95,57%</t>
         </is>
       </c>
     </row>
@@ -2694,12 +2694,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13944</t>
+          <t>15667</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>44829</t>
+          <t>45677</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -2709,12 +2709,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -2729,12 +2729,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>20879</t>
+          <t>19937</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>46887</t>
+          <t>47154</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -2744,12 +2744,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -2764,12 +2764,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>42904</t>
+          <t>43264</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>84533</t>
+          <t>86187</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -2779,12 +2779,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>3,08%</t>
         </is>
       </c>
     </row>
@@ -2807,12 +2807,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1364564</t>
+          <t>1363716</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1395449</t>
+          <t>1393726</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -2822,12 +2822,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>96,82%</t>
+          <t>96,76%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>99,01%</t>
+          <t>98,89%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -2842,12 +2842,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1338924</t>
+          <t>1338657</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1364932</t>
+          <t>1365874</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -2857,12 +2857,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>96,62%</t>
+          <t>96,6%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>98,49%</t>
+          <t>98,56%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -2877,12 +2877,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>2710671</t>
+          <t>2709017</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>2752300</t>
+          <t>2751940</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -2892,12 +2892,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>96,98%</t>
+          <t>96,92%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>98,47%</t>
+          <t>98,45%</t>
         </is>
       </c>
     </row>
@@ -3037,12 +3037,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2248</t>
+          <t>2206</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12169</t>
+          <t>12112</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -3052,12 +3052,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -3072,12 +3072,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>6195</t>
+          <t>6257</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>18099</t>
+          <t>17109</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -3087,12 +3087,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -3107,12 +3107,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>10200</t>
+          <t>10016</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>25696</t>
+          <t>24762</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -3122,12 +3122,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>2,74%</t>
         </is>
       </c>
     </row>
@@ -3150,12 +3150,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>447632</t>
+          <t>447689</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>457553</t>
+          <t>457595</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -3165,12 +3165,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>97,35%</t>
+          <t>97,37%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,51%</t>
+          <t>99,52%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -3185,12 +3185,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>425275</t>
+          <t>426265</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>437179</t>
+          <t>437117</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -3200,12 +3200,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>95,92%</t>
+          <t>96,14%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>98,6%</t>
+          <t>98,59%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -3220,12 +3220,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>877479</t>
+          <t>878413</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>892975</t>
+          <t>893159</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -3235,12 +3235,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>97,15%</t>
+          <t>97,26%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,87%</t>
+          <t>98,89%</t>
         </is>
       </c>
     </row>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>28110</t>
+          <t>27658</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>62251</t>
+          <t>62525</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -3395,12 +3395,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -3415,12 +3415,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>52325</t>
+          <t>49659</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>96819</t>
+          <t>93713</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -3430,12 +3430,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -3450,12 +3450,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>92182</t>
+          <t>89419</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>148676</t>
+          <t>143271</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -3465,12 +3465,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>3,32%</t>
         </is>
       </c>
     </row>
@@ -3493,12 +3493,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2034750</t>
+          <t>2034476</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2068891</t>
+          <t>2069343</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -3508,12 +3508,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>97,03%</t>
+          <t>97,02%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>98,66%</t>
+          <t>98,68%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -3528,12 +3528,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>2127126</t>
+          <t>2130232</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>2171620</t>
+          <t>2174286</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -3543,12 +3543,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>95,65%</t>
+          <t>95,79%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>97,65%</t>
+          <t>97,77%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -3563,12 +3563,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>4172270</t>
+          <t>4177675</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>4228764</t>
+          <t>4231527</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -3578,12 +3578,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>96,56%</t>
+          <t>96,68%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>97,87%</t>
+          <t>97,93%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CONS_ANT-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CONS_ANT-Estudios-trans_orig.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos antibióticos en País Vasco (tasa de respuesta: 99,45%)</t>
+          <t>Consumo de medicamentos antibióticos en Andalucia (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -730,107 +730,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1556</t>
+          <t>9238</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>746</t>
+          <t>5029</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2837</t>
+          <t>16942</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>6,65%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>38</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2655</t>
+          <t>27537</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>1597</t>
+          <t>19329</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>4528</t>
+          <t>37816</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>8,75%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>49</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>4211</t>
+          <t>36775</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>2851</t>
+          <t>27026</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>6202</t>
+          <t>48800</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>7,1%</t>
         </is>
       </c>
     </row>
@@ -843,107 +843,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>278</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>80986</t>
+          <t>245659</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>79705</t>
+          <t>237955</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>81796</t>
+          <t>249868</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>98,11%</t>
+          <t>96,38%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>96,56%</t>
+          <t>93,35%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>99,1%</t>
+          <t>98,03%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>739</t>
+          <t>656</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>118797</t>
+          <t>404729</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>116924</t>
+          <t>394450</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>119855</t>
+          <t>412937</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>97,81%</t>
+          <t>93,63%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>96,27%</t>
+          <t>91,25%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>98,69%</t>
+          <t>95,53%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>1232</t>
+          <t>934</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>199783</t>
+          <t>650388</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>197792</t>
+          <t>638363</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>201143</t>
+          <t>660137</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>97,94%</t>
+          <t>94,65%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>96,96%</t>
+          <t>92,9%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>98,6%</t>
+          <t>96,07%</t>
         </is>
       </c>
     </row>
@@ -956,22 +956,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>289</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>82542</t>
+          <t>254897</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>82542</t>
+          <t>254897</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>82542</t>
+          <t>254897</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -991,22 +991,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>755</t>
+          <t>694</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>121452</t>
+          <t>432266</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>121452</t>
+          <t>432266</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>121452</t>
+          <t>432266</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1026,22 +1026,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1258</t>
+          <t>983</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>203994</t>
+          <t>687163</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>203994</t>
+          <t>687163</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>203994</t>
+          <t>687163</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1073,107 +1073,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2910</t>
+          <t>32133</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1692</t>
+          <t>21092</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4947</t>
+          <t>49854</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>56</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4185</t>
+          <t>40067</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2429</t>
+          <t>29761</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6306</t>
+          <t>51970</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>81</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>7096</t>
+          <t>72200</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>4973</t>
+          <t>57383</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>10620</t>
+          <t>91050</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>3,56%</t>
         </is>
       </c>
     </row>
@@ -1186,107 +1186,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2632</t>
+          <t>1086</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>458769</t>
+          <t>1255554</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>456732</t>
+          <t>1237833</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>459987</t>
+          <t>1266595</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>99,37%</t>
+          <t>97,5%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>98,93%</t>
+          <t>96,13%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>99,63%</t>
+          <t>98,36%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2483</t>
+          <t>1583</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>440172</t>
+          <t>1230674</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>438051</t>
+          <t>1218771</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>441928</t>
+          <t>1240980</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>99,06%</t>
+          <t>96,85%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>98,58%</t>
+          <t>95,91%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>99,45%</t>
+          <t>97,66%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>5115</t>
+          <t>2669</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>898939</t>
+          <t>2486228</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>895415</t>
+          <t>2467378</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>901062</t>
+          <t>2501045</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>99,22%</t>
+          <t>97,18%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>98,83%</t>
+          <t>96,44%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>99,45%</t>
+          <t>97,76%</t>
         </is>
       </c>
     </row>
@@ -1299,22 +1299,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2647</t>
+          <t>1111</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>461679</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>461679</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>461679</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1334,22 +1334,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2503</t>
+          <t>1639</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>444357</t>
+          <t>1270741</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>444357</t>
+          <t>1270741</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>444357</t>
+          <t>1270741</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1369,22 +1369,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>5150</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>906035</t>
+          <t>2558428</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>906035</t>
+          <t>2558428</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>906035</t>
+          <t>2558428</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1416,107 +1416,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1041</t>
+          <t>5470</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>2250</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2437</t>
+          <t>11977</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1613</t>
+          <t>15398</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>792</t>
+          <t>9208</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>2736</t>
+          <t>25407</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>23</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>2654</t>
+          <t>20868</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>1465</t>
+          <t>13714</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>4371</t>
+          <t>32200</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>3,2%</t>
         </is>
       </c>
     </row>
@@ -1529,107 +1529,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>902</t>
+          <t>481</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>174520</t>
+          <t>504409</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>173124</t>
+          <t>497902</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>175228</t>
+          <t>507629</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>99,41%</t>
+          <t>98,93%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>98,61%</t>
+          <t>97,65%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,81%</t>
+          <t>99,56%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1189</t>
+          <t>649</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>226381</t>
+          <t>480508</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>225258</t>
+          <t>470499</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>227202</t>
+          <t>486698</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>99,29%</t>
+          <t>96,9%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>98,8%</t>
+          <t>94,88%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>99,65%</t>
+          <t>98,14%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>2091</t>
+          <t>1130</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>400901</t>
+          <t>984918</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>399184</t>
+          <t>973586</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>402090</t>
+          <t>992072</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>99,34%</t>
+          <t>97,93%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>98,92%</t>
+          <t>96,8%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>99,64%</t>
+          <t>98,64%</t>
         </is>
       </c>
     </row>
@@ -1642,22 +1642,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>907</t>
+          <t>487</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>175561</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>175561</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>175561</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1677,22 +1677,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1199</t>
+          <t>666</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>227994</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>227994</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>227994</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1712,22 +1712,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>2106</t>
+          <t>1153</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>403555</t>
+          <t>1005786</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>403555</t>
+          <t>1005786</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>403555</t>
+          <t>1005786</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1759,107 +1759,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5507</t>
+          <t>46841</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3713</t>
+          <t>32899</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7932</t>
+          <t>66597</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>111</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8453</t>
+          <t>83002</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6077</t>
+          <t>68634</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>11450</t>
+          <t>101336</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>153</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>13960</t>
+          <t>129842</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>10961</t>
+          <t>108322</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>17406</t>
+          <t>155448</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>3,66%</t>
         </is>
       </c>
     </row>
@@ -1872,107 +1872,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4027</t>
+          <t>1845</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>714274</t>
+          <t>2005623</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>711849</t>
+          <t>1985867</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>716068</t>
+          <t>2019565</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>99,23%</t>
+          <t>97,72%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>98,9%</t>
+          <t>96,76%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>99,48%</t>
+          <t>98,4%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>4411</t>
+          <t>2888</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>785350</t>
+          <t>2115911</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>782353</t>
+          <t>2097577</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>787726</t>
+          <t>2130279</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>98,94%</t>
+          <t>96,23%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>98,56%</t>
+          <t>95,39%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>99,23%</t>
+          <t>96,88%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>8438</t>
+          <t>4733</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1499624</t>
+          <t>4121534</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1496178</t>
+          <t>4095928</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1502623</t>
+          <t>4143054</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>99,08%</t>
+          <t>96,95%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>98,85%</t>
+          <t>96,34%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>99,28%</t>
+          <t>97,45%</t>
         </is>
       </c>
     </row>
@@ -1985,22 +1985,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4057</t>
+          <t>1887</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>719781</t>
+          <t>2052464</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>719781</t>
+          <t>2052464</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>719781</t>
+          <t>2052464</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2020,22 +2020,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4457</t>
+          <t>2999</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>793803</t>
+          <t>2198913</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>793803</t>
+          <t>2198913</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>793803</t>
+          <t>2198913</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2055,22 +2055,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>8514</t>
+          <t>4886</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1513584</t>
+          <t>4251376</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1513584</t>
+          <t>4251376</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1513584</t>
+          <t>4251376</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2156,7 +2156,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos antibióticos en Andalucia (tasa de respuesta: 99,86%)</t>
+          <t>Consumo de medicamentos antibióticos en C.Valenciana (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2341,107 +2341,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9064</t>
+          <t>3962</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4941</t>
+          <t>2073</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>16938</t>
+          <t>6475</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>28788</t>
+          <t>7228</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>20243</t>
+          <t>4383</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>50426</t>
+          <t>11444</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>12,77%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>31</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>37852</t>
+          <t>11190</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>27552</t>
+          <t>7775</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>59288</t>
+          <t>16182</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>9,52%</t>
+          <t>3,31%</t>
         </is>
       </c>
     </row>
@@ -2454,107 +2454,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>541</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>218743</t>
+          <t>211834</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>210869</t>
+          <t>209321</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>222866</t>
+          <t>213723</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>96,02%</t>
+          <t>98,16%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>92,56%</t>
+          <t>97,0%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>97,83%</t>
+          <t>99,04%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>656</t>
+          <t>625</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>365972</t>
+          <t>266453</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>344334</t>
+          <t>262237</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>374517</t>
+          <t>269298</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>92,71%</t>
+          <t>97,36%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>87,23%</t>
+          <t>95,82%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>94,87%</t>
+          <t>98,4%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>934</t>
+          <t>1166</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>584715</t>
+          <t>478288</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>563279</t>
+          <t>473296</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>595015</t>
+          <t>481703</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>93,92%</t>
+          <t>97,71%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>90,48%</t>
+          <t>96,69%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>95,57%</t>
+          <t>98,41%</t>
         </is>
       </c>
     </row>
@@ -2567,22 +2567,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>553</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>227807</t>
+          <t>215796</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>227807</t>
+          <t>215796</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>227807</t>
+          <t>215796</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -2602,22 +2602,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>694</t>
+          <t>644</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>394760</t>
+          <t>273681</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>394760</t>
+          <t>273681</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>394760</t>
+          <t>273681</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -2637,22 +2637,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>983</t>
+          <t>1197</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>622567</t>
+          <t>489478</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>622567</t>
+          <t>489478</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>622567</t>
+          <t>489478</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -2684,107 +2684,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>29002</t>
+          <t>17038</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15667</t>
+          <t>11651</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>45677</t>
+          <t>25623</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>34</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>33719</t>
+          <t>19051</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>19937</t>
+          <t>13149</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>47154</t>
+          <t>27161</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>65</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>62721</t>
+          <t>36089</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>43264</t>
+          <t>27703</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>86187</t>
+          <t>46441</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>2,68%</t>
         </is>
       </c>
     </row>
@@ -2797,107 +2797,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1086</t>
+          <t>1605</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1380391</t>
+          <t>844980</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1363716</t>
+          <t>836395</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1393726</t>
+          <t>850367</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>97,94%</t>
+          <t>98,02%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>96,76%</t>
+          <t>97,03%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>98,89%</t>
+          <t>98,65%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1583</t>
+          <t>1489</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1352092</t>
+          <t>849129</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1338657</t>
+          <t>841019</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1365874</t>
+          <t>855031</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>97,57%</t>
+          <t>97,81%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>96,6%</t>
+          <t>96,87%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>98,56%</t>
+          <t>98,49%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>2669</t>
+          <t>3094</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>2732483</t>
+          <t>1694109</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>2709017</t>
+          <t>1683757</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>2751940</t>
+          <t>1702495</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>97,76%</t>
+          <t>97,91%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>96,92%</t>
+          <t>97,32%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>98,45%</t>
+          <t>98,4%</t>
         </is>
       </c>
     </row>
@@ -2910,22 +2910,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1111</t>
+          <t>1636</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>862018</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>862018</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>862018</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -2945,22 +2945,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1639</t>
+          <t>1523</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1385811</t>
+          <t>868180</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1385811</t>
+          <t>868180</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1385811</t>
+          <t>868180</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -2980,22 +2980,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>3159</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>2795204</t>
+          <t>1730198</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>2795204</t>
+          <t>1730198</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>2795204</t>
+          <t>1730198</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -3027,107 +3027,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5530</t>
+          <t>2487</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2206</t>
+          <t>1190</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12112</t>
+          <t>5352</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>10797</t>
+          <t>12684</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>6257</t>
+          <t>8047</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>17109</t>
+          <t>19824</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>4,76%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>27</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>16327</t>
+          <t>15171</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>10016</t>
+          <t>9504</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>24762</t>
+          <t>22578</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>2,84%</t>
         </is>
       </c>
     </row>
@@ -3140,107 +3140,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>648</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>454271</t>
+          <t>376066</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>447689</t>
+          <t>373201</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>457595</t>
+          <t>377363</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>98,8%</t>
+          <t>99,34%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>97,37%</t>
+          <t>98,59%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,52%</t>
+          <t>99,69%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>680</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>432577</t>
+          <t>404191</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>426265</t>
+          <t>397051</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>437117</t>
+          <t>408828</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>97,56%</t>
+          <t>96,96%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>96,14%</t>
+          <t>95,24%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>98,59%</t>
+          <t>98,07%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1130</t>
+          <t>1328</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>886848</t>
+          <t>780257</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>878413</t>
+          <t>772850</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>893159</t>
+          <t>785924</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>98,19%</t>
+          <t>98,09%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>97,26%</t>
+          <t>97,16%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,89%</t>
+          <t>98,81%</t>
         </is>
       </c>
     </row>
@@ -3253,22 +3253,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>655</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>378553</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>378553</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>378553</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -3288,22 +3288,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>700</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>416875</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>416875</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>416875</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -3323,22 +3323,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1153</t>
+          <t>1355</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>795428</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>795428</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>795428</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -3370,107 +3370,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>43596</t>
+          <t>23486</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>27658</t>
+          <t>16555</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>62525</t>
+          <t>31297</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>73</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>73303</t>
+          <t>38963</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>49659</t>
+          <t>29876</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>93713</t>
+          <t>49194</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>123</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>116900</t>
+          <t>62449</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>89419</t>
+          <t>52133</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>143271</t>
+          <t>75902</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>2,52%</t>
         </is>
       </c>
     </row>
@@ -3483,107 +3483,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1845</t>
+          <t>2794</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2053405</t>
+          <t>1432881</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2034476</t>
+          <t>1425070</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2069343</t>
+          <t>1439812</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>97,92%</t>
+          <t>98,39%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>97,02%</t>
+          <t>97,85%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>98,68%</t>
+          <t>98,86%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2888</t>
+          <t>2794</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>2150642</t>
+          <t>1519774</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>2130232</t>
+          <t>1509543</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>2174286</t>
+          <t>1528861</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>96,7%</t>
+          <t>97,5%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>95,79%</t>
+          <t>96,84%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>97,77%</t>
+          <t>98,08%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>4733</t>
+          <t>5588</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>4204046</t>
+          <t>2952655</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>4177675</t>
+          <t>2939202</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>4231527</t>
+          <t>2962971</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>97,29%</t>
+          <t>97,93%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>96,68%</t>
+          <t>97,48%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>97,93%</t>
+          <t>98,27%</t>
         </is>
       </c>
     </row>
@@ -3596,22 +3596,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1887</t>
+          <t>2844</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2097001</t>
+          <t>1456367</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2097001</t>
+          <t>1456367</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2097001</t>
+          <t>1456367</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -3631,22 +3631,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2999</t>
+          <t>2867</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2223945</t>
+          <t>1558737</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2223945</t>
+          <t>1558737</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2223945</t>
+          <t>1558737</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -3666,22 +3666,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>4886</t>
+          <t>5711</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>4320946</t>
+          <t>3015104</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>4320946</t>
+          <t>3015104</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>4320946</t>
+          <t>3015104</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -3767,7 +3767,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos antibióticos en C.Valenciana (tasa de respuesta: 99,74%)</t>
+          <t>Consumo de medicamentos antibióticos en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3952,107 +3952,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3962</t>
+          <t>1556</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2073</t>
+          <t>746</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6475</t>
+          <t>2837</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7228</t>
+          <t>2655</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>4383</t>
+          <t>1597</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>11444</t>
+          <t>4528</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>26</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>11190</t>
+          <t>4211</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>7775</t>
+          <t>2851</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>16182</t>
+          <t>6202</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>3,04%</t>
         </is>
       </c>
     </row>
@@ -4065,107 +4065,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>541</t>
+          <t>493</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>211834</t>
+          <t>80986</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>209321</t>
+          <t>79705</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>213723</t>
+          <t>81796</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>98,16%</t>
+          <t>98,11%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>97,0%</t>
+          <t>96,56%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>99,04%</t>
+          <t>99,1%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>739</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>266453</t>
+          <t>118797</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>262237</t>
+          <t>116924</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>269298</t>
+          <t>119855</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>97,36%</t>
+          <t>97,81%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>95,82%</t>
+          <t>96,27%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>98,4%</t>
+          <t>98,69%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>1166</t>
+          <t>1232</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>478288</t>
+          <t>199783</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>473296</t>
+          <t>197792</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>481703</t>
+          <t>201143</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>97,71%</t>
+          <t>97,94%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>96,69%</t>
+          <t>96,96%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>98,41%</t>
+          <t>98,6%</t>
         </is>
       </c>
     </row>
@@ -4178,22 +4178,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>503</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>215796</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>215796</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>215796</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -4213,22 +4213,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>644</t>
+          <t>755</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>273681</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>273681</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>273681</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -4248,22 +4248,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1197</t>
+          <t>1258</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>489478</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>489478</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>489478</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -4295,107 +4295,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17038</t>
+          <t>2910</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11651</t>
+          <t>1692</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>25623</t>
+          <t>4947</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19051</t>
+          <t>4185</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>13149</t>
+          <t>2429</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>27161</t>
+          <t>6306</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>35</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>36089</t>
+          <t>7096</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>27703</t>
+          <t>4973</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>46441</t>
+          <t>10620</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>1,17%</t>
         </is>
       </c>
     </row>
@@ -4408,107 +4408,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1605</t>
+          <t>2632</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>844980</t>
+          <t>458769</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>836395</t>
+          <t>456732</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>850367</t>
+          <t>459987</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>98,02%</t>
+          <t>99,37%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>97,03%</t>
+          <t>98,93%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>98,65%</t>
+          <t>99,63%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1489</t>
+          <t>2483</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>849129</t>
+          <t>440172</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>841019</t>
+          <t>438051</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>855031</t>
+          <t>441928</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>97,81%</t>
+          <t>99,06%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>96,87%</t>
+          <t>98,58%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>98,49%</t>
+          <t>99,45%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>3094</t>
+          <t>5115</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>1694109</t>
+          <t>898939</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>1683757</t>
+          <t>895415</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>1702495</t>
+          <t>901062</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>97,91%</t>
+          <t>99,22%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>97,32%</t>
+          <t>98,83%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>98,4%</t>
+          <t>99,45%</t>
         </is>
       </c>
     </row>
@@ -4521,22 +4521,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1636</t>
+          <t>2647</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>862018</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>862018</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>862018</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -4556,22 +4556,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1523</t>
+          <t>2503</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>868180</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>868180</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>868180</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4591,22 +4591,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>3159</t>
+          <t>5150</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>1730198</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>1730198</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>1730198</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4638,107 +4638,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2487</t>
+          <t>1041</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1190</t>
+          <t>333</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5352</t>
+          <t>2437</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>0,59%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0,19%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1,39%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1613</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>792</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>2736</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,71%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0,35%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>1,2%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>2654</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>1465</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>4371</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
           <t>0,66%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0,31%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>1,41%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>12684</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>8047</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>19824</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>3,04%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>1,93%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>4,76%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>15171</t>
-        </is>
-      </c>
-      <c r="S10" s="2" t="inlineStr">
-        <is>
-          <t>9504</t>
-        </is>
-      </c>
-      <c r="T10" s="2" t="inlineStr">
-        <is>
-          <t>22578</t>
-        </is>
-      </c>
-      <c r="U10" s="2" t="inlineStr">
-        <is>
-          <t>1,91%</t>
-        </is>
-      </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>1,08%</t>
         </is>
       </c>
     </row>
@@ -4751,107 +4751,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>648</t>
+          <t>902</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>376066</t>
+          <t>174520</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>373201</t>
+          <t>173124</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>377363</t>
+          <t>175228</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>99,41%</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>98,61%</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>99,81%</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>1189</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>226381</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>225258</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>227202</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>99,29%</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>98,8%</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>99,65%</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>2091</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>400901</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>399184</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>402090</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
           <t>99,34%</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>98,59%</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>99,69%</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>680</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>404191</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>397051</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>408828</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>96,96%</t>
-        </is>
-      </c>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>95,24%</t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>98,07%</t>
-        </is>
-      </c>
-      <c r="Q11" s="2" t="inlineStr">
-        <is>
-          <t>1328</t>
-        </is>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>780257</t>
-        </is>
-      </c>
-      <c r="S11" s="2" t="inlineStr">
-        <is>
-          <t>772850</t>
-        </is>
-      </c>
-      <c r="T11" s="2" t="inlineStr">
-        <is>
-          <t>785924</t>
-        </is>
-      </c>
-      <c r="U11" s="2" t="inlineStr">
-        <is>
-          <t>98,09%</t>
-        </is>
-      </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>97,16%</t>
+          <t>98,92%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,81%</t>
+          <t>99,64%</t>
         </is>
       </c>
     </row>
@@ -4864,22 +4864,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>655</t>
+          <t>907</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>378553</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>378553</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>378553</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4899,22 +4899,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>1199</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>416875</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>416875</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>416875</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4934,22 +4934,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1355</t>
+          <t>2106</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>795428</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>795428</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>795428</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4981,107 +4981,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>23486</t>
+          <t>5507</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16555</t>
+          <t>3713</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>31297</t>
+          <t>7932</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>46</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>38963</t>
+          <t>8453</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>29876</t>
+          <t>6077</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>49194</t>
+          <t>11450</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>76</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>62449</t>
+          <t>13960</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>52133</t>
+          <t>10961</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>75902</t>
+          <t>17406</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>1,15%</t>
         </is>
       </c>
     </row>
@@ -5094,107 +5094,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2794</t>
+          <t>4027</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1432881</t>
+          <t>714274</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1425070</t>
+          <t>711849</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1439812</t>
+          <t>716068</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>98,39%</t>
+          <t>99,23%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>97,85%</t>
+          <t>98,9%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>98,86%</t>
+          <t>99,48%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2794</t>
+          <t>4411</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1519774</t>
+          <t>785350</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1509543</t>
+          <t>782353</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>1528861</t>
+          <t>787726</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>97,5%</t>
+          <t>98,94%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>96,84%</t>
+          <t>98,56%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>98,08%</t>
+          <t>99,23%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>5588</t>
+          <t>8438</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>2952655</t>
+          <t>1499624</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>2939202</t>
+          <t>1496178</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>2962971</t>
+          <t>1502623</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>97,93%</t>
+          <t>99,08%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>97,48%</t>
+          <t>98,85%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>98,27%</t>
+          <t>99,28%</t>
         </is>
       </c>
     </row>
@@ -5207,22 +5207,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2844</t>
+          <t>4057</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1456367</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1456367</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1456367</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -5242,22 +5242,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2867</t>
+          <t>4457</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1558737</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1558737</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1558737</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -5277,22 +5277,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>5711</t>
+          <t>8514</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>3015104</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>3015104</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>3015104</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
